--- a/test/set_cell_by_struct.xlsx
+++ b/test/set_cell_by_struct.xlsx
@@ -180,120 +180,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="1F497D"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="EEECE1"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="4F81BD"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="C0504D"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="9BBB59"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="8064A2"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4BACC6"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="F79646"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0000FF"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="800080"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Cambria"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="宋体"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="宋体"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -343,8 +343,8 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
@@ -366,8 +366,8 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
@@ -406,8 +406,8 @@
             <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -456,12 +456,12 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/test/set_cell_by_struct.xlsx
+++ b/test/set_cell_by_struct.xlsx
@@ -464,46 +464,8 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col customWidth="true" max="3" min="1" width="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6">
-        <v>95.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="UTF-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xr:uid="{00000000-0001-0000-0000-000000000000}"><dimension ref="A1:C1"></dimension><sheetViews><sheetView workbookViewId="0"><selection activeCell="C5" sqref="C5"></selection></sheetView></sheetViews><sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"></sheetFormatPr><sheetData><row r="2"><c r="A2" s="6" t="str"><v>小明</v></c></row><row r="2"><c r="B2" s="6" t="str"><v>数学</v></c></row><row r="2"><c r="C2" s="6"><v>95.5</v></c></row>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/test/set_cell_by_struct.xlsx
+++ b/test/set_cell_by_struct.xlsx
@@ -180,120 +180,120 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+  <themeElements>
+    <clrScheme name="Office">
+      <dk1>
+        <sysClr val="windowText" lastClr="000000"/>
+      </dk1>
+      <lt1>
+        <sysClr val="window" lastClr="FFFFFF"/>
+      </lt1>
+      <dk2>
+        <srgbClr val="1F497D"/>
+      </dk2>
+      <lt2>
+        <srgbClr val="EEECE1"/>
+      </lt2>
+      <accent1>
+        <srgbClr val="4F81BD"/>
+      </accent1>
+      <accent2>
+        <srgbClr val="C0504D"/>
+      </accent2>
+      <accent3>
+        <srgbClr val="9BBB59"/>
+      </accent3>
+      <accent4>
+        <srgbClr val="8064A2"/>
+      </accent4>
+      <accent5>
+        <srgbClr val="4BACC6"/>
+      </accent5>
+      <accent6>
+        <srgbClr val="F79646"/>
+      </accent6>
+      <hlink>
+        <srgbClr val="0000FF"/>
+      </hlink>
+      <folHlink>
+        <srgbClr val="800080"/>
+      </folHlink>
+    </clrScheme>
+    <fontScheme name="Office">
+      <majorFont>
+        <latin typeface="Cambria"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="宋体"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Times New Roman"/>
+        <font script="Hebr" typeface="Times New Roman"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="MoolBoran"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Times New Roman"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </majorFont>
+      <minorFont>
+        <latin typeface="Calibri"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="宋体"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Arial"/>
+        <font script="Hebr" typeface="Arial"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="DaunPenh"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Arial"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+      </minorFont>
+    </fontScheme>
+    <fmtScheme name="Office">
+      <fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -343,8 +343,8 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
+      </fillStyleLst>
+      <lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
@@ -366,8 +366,8 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
+      </lnStyleLst>
+      <effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
@@ -406,8 +406,8 @@
             <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+      </effectStyleLst>
+      <bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -456,16 +456,54 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
+      </bgFillStyleLst>
+    </fmtScheme>
+  </themeElements>
+  <objectDefaults/>
+  <extraClrSchemeLst/>
+</theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="UTF-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xr:uid="{00000000-0001-0000-0000-000000000000}"><dimension ref="A1:C1"></dimension><sheetViews><sheetView workbookViewId="0"><selection activeCell="C5" sqref="C5"></selection></sheetView></sheetViews><sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"></sheetFormatPr><sheetData><row r="2"><c r="A2" s="6" t="str"><v>小明</v></c></row><row r="2"><c r="B2" s="6" t="str"><v>数学</v></c></row><row r="2"><c r="C2" s="6"><v>95.5</v></c></row>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col customWidth="true" max="3" min="1" width="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6">
+        <v>95.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
